--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\desiAssessment\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC695A-1BC9-4C76-8F46-FE45CAA75ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="588" windowWidth="22716" windowHeight="8676"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Username</t>
   </si>
@@ -25,9 +31,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Dashboard_URL</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>student</t>
   </si>
   <si>
-    <t>/student</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
     <t>teacher</t>
   </si>
   <si>
-    <t>/teacher</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>/admin</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -137,13 +131,121 @@
   </si>
   <si>
     <t>ad05</t>
+  </si>
+  <si>
+    <t>username (used for login)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name (actual name of user)</t>
+  </si>
+  <si>
+    <t>email (provided by coaching institute)</t>
+  </si>
+  <si>
+    <t>role (student,teacher,admin)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Student One</t>
+  </si>
+  <si>
+    <t>Teacher One</t>
+  </si>
+  <si>
+    <t>Admin One</t>
+  </si>
+  <si>
+    <t>Student Two</t>
+  </si>
+  <si>
+    <t>Student Three</t>
+  </si>
+  <si>
+    <t>Student Four</t>
+  </si>
+  <si>
+    <t>Student Five</t>
+  </si>
+  <si>
+    <t>Teacher Two</t>
+  </si>
+  <si>
+    <t>Teacher Three</t>
+  </si>
+  <si>
+    <t>Teacher Four</t>
+  </si>
+  <si>
+    <t>Teacher Five</t>
+  </si>
+  <si>
+    <t>Admin Two</t>
+  </si>
+  <si>
+    <t>Admin Three</t>
+  </si>
+  <si>
+    <t>Admin Four</t>
+  </si>
+  <si>
+    <t>Admin Five</t>
+  </si>
+  <si>
+    <t>st01@example.com</t>
+  </si>
+  <si>
+    <t>st02@example.com</t>
+  </si>
+  <si>
+    <t>st03@example.com</t>
+  </si>
+  <si>
+    <t>st04@example.com</t>
+  </si>
+  <si>
+    <t>st05@example.com</t>
+  </si>
+  <si>
+    <t>te01@example.com</t>
+  </si>
+  <si>
+    <t>te02@example.com</t>
+  </si>
+  <si>
+    <t>te03@example.com</t>
+  </si>
+  <si>
+    <t>te04@example.com</t>
+  </si>
+  <si>
+    <t>te05@example.com</t>
+  </si>
+  <si>
+    <t>ad01@example.com</t>
+  </si>
+  <si>
+    <t>ad02@example.com</t>
+  </si>
+  <si>
+    <t>ad03@example.com</t>
+  </si>
+  <si>
+    <t>ad04@example.com</t>
+  </si>
+  <si>
+    <t>ad05@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,14 +274,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -504,16 +615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="12" max="12" width="28.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,231 +640,289 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6"/>
-    <row r="18" ht="15.6"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E16" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D16 A1:B16 F2:F16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\desiAssessment\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC695A-1BC9-4C76-8F46-FE45CAA75ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBF7B5-1EAA-4AA7-B922-CE05620FAE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Username</t>
   </si>
@@ -131,21 +131,6 @@
   </si>
   <si>
     <t>ad05</t>
-  </si>
-  <si>
-    <t>username (used for login)</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>name (actual name of user)</t>
-  </si>
-  <si>
-    <t>email (provided by coaching institute)</t>
-  </si>
-  <si>
-    <t>role (student,teacher,admin)</t>
   </si>
   <si>
     <t>Name</t>
@@ -616,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -632,7 +617,7 @@
     <col min="12" max="12" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -649,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -657,16 +642,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -674,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -691,16 +676,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -708,16 +693,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -725,16 +710,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -742,16 +727,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -759,19 +744,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -779,19 +761,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -799,19 +778,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -819,19 +795,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -839,19 +812,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -859,16 +829,16 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -876,16 +846,16 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -893,16 +863,16 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -910,13 +880,13 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
